--- a/src/main/resources/static/car_record.xlsx
+++ b/src/main/resources/static/car_record.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LvDun\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D59EF19-A7AC-4D24-9E98-2882FDE51823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1365" windowWidth="26775" windowHeight="14100" xr2:uid="{53BC7B7A-D905-41CC-AFDD-07EFC821BBDA}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>车辆使用情况月签字统计表</t>
   </si>
@@ -48,22 +28,37 @@
     <t>日期</t>
   </si>
   <si>
+    <t>用车单位</t>
+  </si>
+  <si>
+    <t>乘车人</t>
+  </si>
+  <si>
+    <t>乘车人数</t>
+  </si>
+  <si>
+    <t>用车类别</t>
+  </si>
+  <si>
     <t>用车事由</t>
   </si>
   <si>
     <t>目的地</t>
   </si>
   <si>
-    <t>乘车人</t>
-  </si>
-  <si>
-    <t>乘车人数</t>
-  </si>
-  <si>
-    <t>车号</t>
-  </si>
-  <si>
-    <t>驾驶员</t>
+    <t>用车时间</t>
+  </si>
+  <si>
+    <t>用车时段</t>
+  </si>
+  <si>
+    <t>车牌</t>
+  </si>
+  <si>
+    <t>司机</t>
+  </si>
+  <si>
+    <t>etc使用情况</t>
   </si>
   <si>
     <t>备注</t>
@@ -78,13 +73,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,38 +92,368 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="方正小标宋简体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="仿宋_GB2312"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -142,17 +472,250 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -163,30 +726,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,26 +875,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +910,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,43 +1051,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1142CD81-7EF1-438E-8CA2-2457667806F0}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="10" max="10" width="16.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="22.2" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="22.5">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="22.2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -522,8 +1094,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="17.4" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -551,8 +1124,23 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5">
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -562,8 +1150,13 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" ht="17.4" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -573,8 +1166,13 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" ht="17.4" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -584,8 +1182,13 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" ht="17.4" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -595,8 +1198,13 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" ht="17.4" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -606,8 +1214,13 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" ht="17.4" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -617,8 +1230,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" ht="17.4" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -628,8 +1246,13 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" ht="17.4" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -639,8 +1262,13 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" ht="17.4" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -650,8 +1278,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" ht="17.4" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -661,29 +1294,147 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" ht="17.4" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" ht="17.4" spans="1:14">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" ht="17.4" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" ht="17.4" spans="1:14">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" ht="17.4" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" ht="17.4" spans="1:14">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" ht="17.4" spans="1:14">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" ht="17.4" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/car_record.xlsx
+++ b/src/main/resources/static/car_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>车辆使用情况月签字统计表</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>etc使用情况</t>
+  </si>
+  <si>
+    <t>行驶公里数</t>
   </si>
   <si>
     <t>备注</t>
@@ -66,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -92,6 +95,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -99,6 +117,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -106,71 +146,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,11 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,15 +216,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,14 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +248,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,67 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,97 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +466,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,6 +501,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -489,39 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,13 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,19 +583,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,112 +604,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.8" outlineLevelRow="2"/>
@@ -1082,7 +1085,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" ht="17.4" spans="1:13">
+    <row r="3" ht="17.4" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1121,6 +1124,9 @@
       </c>
       <c r="M3" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
